--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -12924,19 +12924,19 @@
         <v>5</v>
       </c>
       <c r="AV57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX57" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ57" t="n">
         <v>12</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>11</v>
       </c>
       <c r="BA57" t="n">
         <v>6</v>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['32']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -14002,13 +14002,13 @@
         <v>1.67</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS62" t="n">
         <v>1.87</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="AU62" t="n">
         <v>4</v>
@@ -14017,16 +14017,16 @@
         <v>12</v>
       </c>
       <c r="AW62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ62" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA62" t="n">
         <v>6</v>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['19', '30', '60', '68']</t>
+          <t>['19', '30', '61', '68']</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>['90+3']</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="Q68" t="n">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>['24', '84']</t>
+          <t>['20', '84']</t>
         </is>
       </c>
       <c r="Q70" t="n">
@@ -16194,19 +16194,19 @@
         <v>4</v>
       </c>
       <c r="AV72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX72" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY72" t="n">
         <v>10</v>
       </c>
-      <c r="AY72" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA72" t="n">
         <v>3</v>
@@ -16618,13 +16618,13 @@
         <v>0.44</v>
       </c>
       <c r="AR74" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AS74" t="n">
         <v>1.08</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="AU74" t="n">
         <v>7</v>
@@ -17057,10 +17057,10 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.98</v>
+        <v>3.99</v>
       </c>
       <c r="AU76" t="n">
         <v>6</v>
@@ -18362,13 +18362,13 @@
         <v>0.22</v>
       </c>
       <c r="AR82" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS82" t="n">
         <v>1.51</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="AU82" t="n">
         <v>5</v>
@@ -19019,10 +19019,10 @@
         <v>1.24</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AT85" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="AU85" t="n">
         <v>1</v>
@@ -19237,10 +19237,10 @@
         <v>2.07</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AT86" t="n">
-        <v>3.83</v>
+        <v>3.87</v>
       </c>
       <c r="AU86" t="n">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.44</v>
@@ -3317,7 +3317,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR17" t="n">
         <v>2.45</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.22</v>
@@ -6369,7 +6369,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR27" t="n">
         <v>0.99</v>
@@ -7674,7 +7674,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.67</v>
@@ -8546,7 +8546,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.33</v>
@@ -8985,7 +8985,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR39" t="n">
         <v>1.55</v>
@@ -11819,7 +11819,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR52" t="n">
         <v>1.37</v>
@@ -12688,7 +12688,7 @@
         <v>2.67</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.44</v>
@@ -14214,7 +14214,7 @@
         <v>1.17</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR68" t="n">
         <v>1.99</v>
@@ -16830,7 +16830,7 @@
         <v>1.71</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.78</v>
@@ -17269,7 +17269,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR77" t="n">
         <v>1.58</v>
@@ -19667,7 +19667,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR88" t="n">
         <v>1.8</v>
@@ -19882,7 +19882,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.22</v>
@@ -20397,6 +20397,224 @@
       </c>
       <c r="BP91" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8218274</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>46052.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Aluminij</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['59', '66']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X92" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.22</v>
@@ -3535,7 +3535,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR14" t="n">
         <v>2.36</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.44</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.22</v>
@@ -4843,7 +4843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR20" t="n">
         <v>1.6</v>
@@ -5715,7 +5715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR24" t="n">
         <v>1.26</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.59</v>
@@ -7677,7 +7677,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.49</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.78</v>
@@ -8767,7 +8767,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR38" t="n">
         <v>1.81</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.44</v>
@@ -9854,10 +9854,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR43" t="n">
         <v>1.33</v>
@@ -11816,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.4</v>
@@ -12037,7 +12037,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR53" t="n">
         <v>1.54</v>
@@ -12909,7 +12909,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR57" t="n">
         <v>1.26</v>
@@ -13778,7 +13778,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.78</v>
@@ -13999,7 +13999,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.33</v>
@@ -14650,7 +14650,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.44</v>
@@ -15522,7 +15522,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.33</v>
@@ -15961,7 +15961,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.23</v>
@@ -16394,7 +16394,7 @@
         <v>0.17</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.22</v>
@@ -17051,7 +17051,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR76" t="n">
         <v>2</v>
@@ -17266,7 +17266,7 @@
         <v>1.57</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.4</v>
@@ -17923,7 +17923,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR80" t="n">
         <v>1.6</v>
@@ -18792,7 +18792,7 @@
         <v>1.38</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.22</v>
@@ -19013,7 +19013,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR85" t="n">
         <v>1.24</v>
@@ -19446,7 +19446,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.44</v>
@@ -19885,7 +19885,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR89" t="n">
         <v>1.51</v>
@@ -20615,6 +20615,442 @@
       </c>
       <c r="BP92" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8218273</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>46053.45833333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X93" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>8218267</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>46053.5625</v>
+      </c>
+      <c r="F94" t="n">
+        <v>19</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>6</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['5', '21', '22', '30', '45', '50']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['63', '76']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X94" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR16" t="n">
         <v>1.58</v>
@@ -5712,7 +5712,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.5</v>
@@ -5933,7 +5933,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR25" t="n">
         <v>0.93</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.22</v>
@@ -7241,7 +7241,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR31" t="n">
         <v>1.73</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.2</v>
@@ -9203,7 +9203,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR40" t="n">
         <v>1.63</v>
@@ -10511,7 +10511,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR46" t="n">
         <v>1.59</v>
@@ -12252,7 +12252,7 @@
         <v>0.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.44</v>
@@ -12691,7 +12691,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR56" t="n">
         <v>1.49</v>
@@ -14432,7 +14432,7 @@
         <v>0.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.22</v>
@@ -14871,7 +14871,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR66" t="n">
         <v>1.5</v>
@@ -17487,7 +17487,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR78" t="n">
         <v>1.34</v>
@@ -17702,7 +17702,7 @@
         <v>1.57</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.33</v>
@@ -19664,7 +19664,7 @@
         <v>1.38</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.4</v>
@@ -21051,6 +21051,224 @@
       </c>
       <c r="BP94" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8218275</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>46054.45833333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>19</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['35', '64', '90+2']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['55', '57', '78']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X95" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -20551,22 +20551,22 @@
         <v>2.75</v>
       </c>
       <c r="AU92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV92" t="n">
         <v>4</v>
       </c>
-      <c r="AV92" t="n">
-        <v>6</v>
-      </c>
       <c r="AW92" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX92" t="n">
         <v>8</v>
       </c>
       <c r="AY92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ92" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA92" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -20769,10 +20769,10 @@
         <v>2.94</v>
       </c>
       <c r="AU93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW93" t="n">
         <v>7</v>
@@ -20781,10 +20781,10 @@
         <v>7</v>
       </c>
       <c r="AY93" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA93" t="n">
         <v>0</v>
@@ -20990,19 +20990,19 @@
         <v>7</v>
       </c>
       <c r="AV94" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW94" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY94" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ94" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA94" t="n">
         <v>6</v>
@@ -21205,19 +21205,19 @@
         <v>3.58</v>
       </c>
       <c r="AU95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV95" t="n">
         <v>5</v>
       </c>
       <c r="AW95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX95" t="n">
         <v>5</v>
       </c>
       <c r="AY95" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ95" t="n">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.5</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR11" t="n">
         <v>1.53</v>
@@ -4186,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.4</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.22</v>
@@ -4843,7 +4843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR20" t="n">
         <v>1.6</v>
@@ -5279,7 +5279,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.31</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR28" t="n">
         <v>1.59</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ31" t="n">
         <v>2.3</v>
@@ -7895,7 +7895,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.43</v>
@@ -8767,7 +8767,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR38" t="n">
         <v>1.81</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.3</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.44</v>
@@ -10947,7 +10947,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR48" t="n">
         <v>1.22</v>
@@ -11380,7 +11380,7 @@
         <v>1.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -12909,7 +12909,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR57" t="n">
         <v>1.26</v>
@@ -13560,10 +13560,10 @@
         <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.74</v>
@@ -13778,7 +13778,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.78</v>
@@ -14435,7 +14435,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.72</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.78</v>
@@ -15522,7 +15522,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.33</v>
@@ -15961,7 +15961,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR71" t="n">
         <v>1.23</v>
@@ -16397,7 +16397,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR73" t="n">
         <v>1.66</v>
@@ -17266,7 +17266,7 @@
         <v>1.57</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.4</v>
@@ -17923,7 +17923,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR80" t="n">
         <v>1.6</v>
@@ -18138,7 +18138,7 @@
         <v>1.14</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.22</v>
@@ -18359,7 +18359,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.44</v>
@@ -19446,7 +19446,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.44</v>
@@ -19885,7 +19885,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR89" t="n">
         <v>1.51</v>
@@ -20100,7 +20100,7 @@
         <v>1.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.33</v>
@@ -20321,7 +20321,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR91" t="n">
         <v>2.11</v>
@@ -20757,7 +20757,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AR93" t="n">
         <v>1.61</v>
@@ -20972,7 +20972,7 @@
         <v>1.67</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.5</v>
@@ -21269,6 +21269,442 @@
       </c>
       <c r="BP95" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>8218147</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>46056.5625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>20</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>NK Primorje</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['47', '70']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X96" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8218191</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>46056.66666666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['75', '83']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR18" t="n">
         <v>1.74</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.45</v>
@@ -6805,7 +6805,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.44</v>
@@ -10293,7 +10293,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.49</v>
@@ -10729,7 +10729,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.28</v>
@@ -11162,7 +11162,7 @@
         <v>2.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.78</v>
@@ -13127,7 +13127,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.16</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.33</v>
@@ -15304,7 +15304,7 @@
         <v>1.83</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.4</v>
@@ -15743,7 +15743,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR70" t="n">
         <v>1.51</v>
@@ -17048,7 +17048,7 @@
         <v>2</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.5</v>
@@ -18141,7 +18141,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR81" t="n">
         <v>1.94</v>
@@ -18795,7 +18795,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR84" t="n">
         <v>1.61</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.2</v>
@@ -21705,6 +21705,224 @@
       </c>
       <c r="BP97" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>8218151</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>46057.5625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['17', '77', '87']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S98" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U98" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X98" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -21426,19 +21426,19 @@
         <v>4</v>
       </c>
       <c r="AV96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW96" t="n">
         <v>5</v>
       </c>
       <c r="AX96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY96" t="n">
         <v>9</v>
       </c>
       <c r="AZ96" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA96" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ25" t="n">
         <v>2.3</v>
@@ -7023,7 +7023,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR30" t="n">
         <v>1.59</v>
@@ -7456,7 +7456,7 @@
         <v>2</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR37" t="n">
         <v>1.43</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.78</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.1</v>
@@ -11601,7 +11601,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.48</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.45</v>
@@ -13345,7 +13345,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR59" t="n">
         <v>2.04</v>
@@ -13996,7 +13996,7 @@
         <v>1.83</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.5</v>
@@ -15525,7 +15525,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR69" t="n">
         <v>1.61</v>
@@ -16612,7 +16612,7 @@
         <v>0.57</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.44</v>
@@ -17705,7 +17705,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR79" t="n">
         <v>1.82</v>
@@ -18356,7 +18356,7 @@
         <v>0.14</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.2</v>
@@ -20103,7 +20103,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR90" t="n">
         <v>1.88</v>
@@ -21644,19 +21644,19 @@
         <v>1</v>
       </c>
       <c r="AV97" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW97" t="n">
         <v>7</v>
       </c>
       <c r="AX97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY97" t="n">
         <v>8</v>
       </c>
       <c r="AZ97" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA97" t="n">
         <v>3</v>
@@ -21859,19 +21859,19 @@
         <v>3.43</v>
       </c>
       <c r="AU98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV98" t="n">
         <v>4</v>
       </c>
-      <c r="AV98" t="n">
-        <v>5</v>
-      </c>
       <c r="AW98" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY98" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ98" t="n">
         <v>11</v>
@@ -21923,6 +21923,224 @@
       </c>
       <c r="BP98" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>8218276</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>46058.45833333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Aluminij</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['18', '30']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X99" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.44</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.45</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR14" t="n">
         <v>2.36</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR15" t="n">
         <v>0.85</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR16" t="n">
         <v>1.58</v>
@@ -4189,7 +4189,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR17" t="n">
         <v>2.45</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.78</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.44</v>
@@ -5712,10 +5712,10 @@
         <v>1.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR24" t="n">
         <v>1.26</v>
@@ -5933,7 +5933,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR25" t="n">
         <v>0.93</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR26" t="n">
         <v>1.57</v>
@@ -6369,7 +6369,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR27" t="n">
         <v>0.99</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.1</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.5</v>
@@ -7241,7 +7241,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR31" t="n">
         <v>1.73</v>
@@ -7459,7 +7459,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR32" t="n">
         <v>1.11</v>
@@ -7677,7 +7677,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR33" t="n">
         <v>1.49</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.2</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.78</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.45</v>
@@ -8982,10 +8982,10 @@
         <v>2.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR39" t="n">
         <v>1.55</v>
@@ -9203,7 +9203,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR40" t="n">
         <v>1.63</v>
@@ -9854,10 +9854,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR43" t="n">
         <v>1.33</v>
@@ -10075,7 +10075,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR44" t="n">
         <v>1.27</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.1</v>
@@ -10508,10 +10508,10 @@
         <v>2.6</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR46" t="n">
         <v>1.59</v>
@@ -11383,7 +11383,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR50" t="n">
         <v>1.64</v>
@@ -11598,7 +11598,7 @@
         <v>1.75</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.5</v>
@@ -11816,10 +11816,10 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR52" t="n">
         <v>1.37</v>
@@ -12034,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR53" t="n">
         <v>1.54</v>
@@ -12252,7 +12252,7 @@
         <v>0.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.44</v>
@@ -12470,10 +12470,10 @@
         <v>1.4</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR55" t="n">
         <v>1.47</v>
@@ -12691,7 +12691,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR56" t="n">
         <v>1.49</v>
@@ -13999,7 +13999,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR62" t="n">
         <v>1.33</v>
@@ -14217,7 +14217,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR63" t="n">
         <v>1.38</v>
@@ -14432,7 +14432,7 @@
         <v>0.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.2</v>
@@ -14650,7 +14650,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.44</v>
@@ -14868,10 +14868,10 @@
         <v>2.71</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR66" t="n">
         <v>1.5</v>
@@ -15307,7 +15307,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR68" t="n">
         <v>1.99</v>
@@ -15740,7 +15740,7 @@
         <v>0.83</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.1</v>
@@ -16176,10 +16176,10 @@
         <v>1.14</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR72" t="n">
         <v>1.44</v>
@@ -16394,7 +16394,7 @@
         <v>0.17</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.2</v>
@@ -17051,7 +17051,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR76" t="n">
         <v>2</v>
@@ -17269,7 +17269,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR77" t="n">
         <v>1.58</v>
@@ -17487,7 +17487,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR78" t="n">
         <v>1.34</v>
@@ -17702,7 +17702,7 @@
         <v>1.57</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.5</v>
@@ -17920,7 +17920,7 @@
         <v>0.29</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.45</v>
@@ -18574,7 +18574,7 @@
         <v>1.63</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.78</v>
@@ -18792,7 +18792,7 @@
         <v>1.38</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.1</v>
@@ -19013,7 +19013,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR85" t="n">
         <v>1.24</v>
@@ -19231,7 +19231,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR86" t="n">
         <v>2.07</v>
@@ -19664,10 +19664,10 @@
         <v>1.38</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR88" t="n">
         <v>1.8</v>
@@ -20539,7 +20539,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR92" t="n">
         <v>1.5</v>
@@ -20754,7 +20754,7 @@
         <v>0.22</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.45</v>
@@ -20975,7 +20975,7 @@
         <v>2.55</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR94" t="n">
         <v>1.82</v>
@@ -21190,10 +21190,10 @@
         <v>2.44</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AR95" t="n">
         <v>1.8</v>
@@ -22077,22 +22077,22 @@
         <v>3.13</v>
       </c>
       <c r="AU99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV99" t="n">
         <v>7</v>
       </c>
       <c r="AW99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX99" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY99" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ99" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA99" t="n">
         <v>7</v>
@@ -22141,6 +22141,878 @@
       </c>
       <c r="BP99" t="n">
         <v>1.14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8218152</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>46060.45833333334</v>
+      </c>
+      <c r="F100" t="n">
+        <v>21</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>NK Primorje</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="n">
+        <v>5</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['7', '29', '33']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['51', '73']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X100" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8218279</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>46061.375</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Aluminij</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['12', '80', '84']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8218239</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>46061.45833333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>21</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['30', '45+1', '63']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X102" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8218278</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>46061.58333333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>21</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['16', '49']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X103" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -22298,19 +22298,19 @@
         <v>5</v>
       </c>
       <c r="AV100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW100" t="n">
         <v>2</v>
       </c>
       <c r="AX100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY100" t="n">
         <v>7</v>
       </c>
       <c r="AZ100" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA100" t="n">
         <v>2</v>
@@ -22522,13 +22522,13 @@
         <v>6</v>
       </c>
       <c r="AX101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY101" t="n">
         <v>11</v>
       </c>
       <c r="AZ101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA101" t="n">
         <v>7</v>
@@ -22731,22 +22731,22 @@
         <v>3.26</v>
       </c>
       <c r="AU102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV102" t="n">
         <v>4</v>
       </c>
-      <c r="AV102" t="n">
-        <v>2</v>
-      </c>
       <c r="AW102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX102" t="n">
         <v>5</v>
       </c>
       <c r="AY102" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ102" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA102" t="n">
         <v>5</v>
@@ -22949,22 +22949,22 @@
         <v>3.52</v>
       </c>
       <c r="AU103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW103" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ103" t="n">
         <v>7</v>
-      </c>
-      <c r="AY103" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ103" t="n">
-        <v>9</v>
       </c>
       <c r="BA103" t="n">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.44</v>
@@ -1355,7 +1355,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.36</v>
@@ -2009,7 +2009,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.2</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.36</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR18" t="n">
         <v>1.74</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR20" t="n">
         <v>1.6</v>
@@ -5058,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR21" t="n">
         <v>1.77</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR28" t="n">
         <v>1.59</v>
@@ -6805,7 +6805,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.5</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.44</v>
@@ -8331,7 +8331,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR36" t="n">
         <v>1.37</v>
@@ -8767,7 +8767,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR38" t="n">
         <v>1.81</v>
@@ -8982,7 +8982,7 @@
         <v>2.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.55</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ40" t="n">
         <v>2.09</v>
@@ -9639,7 +9639,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR42" t="n">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR45" t="n">
         <v>1.49</v>
@@ -10508,7 +10508,7 @@
         <v>2.6</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.09</v>
@@ -10729,7 +10729,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR47" t="n">
         <v>1.28</v>
@@ -11162,10 +11162,10 @@
         <v>2.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR49" t="n">
         <v>2.04</v>
@@ -12470,7 +12470,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.9</v>
@@ -12909,7 +12909,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR57" t="n">
         <v>1.26</v>
@@ -13127,7 +13127,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR58" t="n">
         <v>1.16</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.5</v>
@@ -13778,10 +13778,10 @@
         <v>1.8</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR61" t="n">
         <v>1.7</v>
@@ -15089,7 +15089,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR67" t="n">
         <v>1.82</v>
@@ -15304,7 +15304,7 @@
         <v>1.83</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.55</v>
@@ -15522,7 +15522,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.5</v>
@@ -15740,10 +15740,10 @@
         <v>0.83</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR70" t="n">
         <v>1.51</v>
@@ -15961,7 +15961,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR71" t="n">
         <v>1.23</v>
@@ -16833,7 +16833,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR75" t="n">
         <v>1.45</v>
@@ -17048,7 +17048,7 @@
         <v>2</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.36</v>
@@ -17266,7 +17266,7 @@
         <v>1.57</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.55</v>
@@ -17920,10 +17920,10 @@
         <v>0.29</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR80" t="n">
         <v>1.6</v>
@@ -18141,7 +18141,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR81" t="n">
         <v>1.94</v>
@@ -18577,7 +18577,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AR83" t="n">
         <v>1.42</v>
@@ -18795,7 +18795,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR84" t="n">
         <v>1.61</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.9</v>
@@ -19446,7 +19446,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.44</v>
@@ -19885,7 +19885,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR89" t="n">
         <v>1.51</v>
@@ -20318,7 +20318,7 @@
         <v>0.25</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.2</v>
@@ -20757,7 +20757,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR93" t="n">
         <v>1.61</v>
@@ -20972,7 +20972,7 @@
         <v>1.67</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.36</v>
@@ -21408,7 +21408,7 @@
         <v>0.22</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.2</v>
@@ -21629,7 +21629,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR97" t="n">
         <v>1.85</v>
@@ -21844,10 +21844,10 @@
         <v>1.22</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR98" t="n">
         <v>2.11</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.36</v>
@@ -23013,6 +23013,660 @@
       </c>
       <c r="BP103" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8218277</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>46067.45833333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>22</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>6</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['16', '45+3', '52', '75', '90']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S104" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8218284</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>46068.45833333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>22</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>NK Primorje</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['10', '32']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8218280</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>46068.5625</v>
+      </c>
+      <c r="F106" t="n">
+        <v>22</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['19', '90+3']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['47', '60']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X106" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -23173,13 +23173,13 @@
         <v>2</v>
       </c>
       <c r="AW104" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX104" t="n">
         <v>1</v>
       </c>
       <c r="AY104" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ104" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.42</v>
@@ -3317,7 +3317,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>2</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR17" t="n">
         <v>2.45</v>
@@ -6369,7 +6369,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR27" t="n">
         <v>0.99</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ31" t="n">
         <v>2.09</v>
@@ -8985,7 +8985,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR39" t="n">
         <v>1.55</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.44</v>
@@ -11380,7 +11380,7 @@
         <v>1.75</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.9</v>
@@ -11819,7 +11819,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR52" t="n">
         <v>1.37</v>
@@ -13560,7 +13560,7 @@
         <v>0.25</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.2</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.9</v>
@@ -15307,7 +15307,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR68" t="n">
         <v>1.99</v>
@@ -17269,7 +17269,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR77" t="n">
         <v>1.58</v>
@@ -18138,7 +18138,7 @@
         <v>1.14</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.09</v>
@@ -19667,7 +19667,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR88" t="n">
         <v>1.8</v>
@@ -20100,7 +20100,7 @@
         <v>1.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.5</v>
@@ -20539,7 +20539,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR92" t="n">
         <v>1.5</v>
@@ -21626,7 +21626,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.42</v>
@@ -22501,7 +22501,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR101" t="n">
         <v>1.38</v>
@@ -23388,19 +23388,19 @@
         <v>6</v>
       </c>
       <c r="AV105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW105" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX105" t="n">
         <v>4</v>
       </c>
       <c r="AY105" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA105" t="n">
         <v>6</v>
@@ -23603,22 +23603,22 @@
         <v>3.13</v>
       </c>
       <c r="AU106" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW106" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX106" t="n">
         <v>8</v>
       </c>
       <c r="AY106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA106" t="n">
         <v>7</v>
@@ -23667,6 +23667,224 @@
       </c>
       <c r="BP106" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8218281</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>46069.5625</v>
+      </c>
+      <c r="F107" t="n">
+        <v>22</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Aluminij</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['21', '86']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -23824,19 +23824,19 @@
         <v>10</v>
       </c>
       <c r="AV107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX107" t="n">
         <v>9</v>
       </c>
-      <c r="AW107" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX107" t="n">
-        <v>6</v>
-      </c>
       <c r="AY107" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ107" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA107" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.42</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.42</v>
@@ -2881,7 +2881,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR11" t="n">
         <v>1.53</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.44</v>
@@ -3753,7 +3753,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR15" t="n">
         <v>0.85</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>2.09</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR22" t="n">
         <v>1.31</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR26" t="n">
         <v>1.57</v>
@@ -7459,7 +7459,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR32" t="n">
         <v>1.11</v>
@@ -7674,7 +7674,7 @@
         <v>1.33</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.36</v>
@@ -7895,7 +7895,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR34" t="n">
         <v>1.43</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.9</v>
@@ -8546,7 +8546,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.5</v>
@@ -9854,7 +9854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.36</v>
@@ -10075,7 +10075,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR44" t="n">
         <v>1.27</v>
@@ -10947,7 +10947,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR48" t="n">
         <v>1.22</v>
@@ -11383,7 +11383,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR50" t="n">
         <v>1.64</v>
@@ -11816,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.42</v>
@@ -12473,7 +12473,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR55" t="n">
         <v>1.47</v>
@@ -12688,7 +12688,7 @@
         <v>2.67</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.09</v>
@@ -13563,7 +13563,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR60" t="n">
         <v>1.74</v>
@@ -14214,10 +14214,10 @@
         <v>1.17</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR63" t="n">
         <v>1.38</v>
@@ -14435,7 +14435,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR64" t="n">
         <v>1.72</v>
@@ -14650,7 +14650,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.44</v>
@@ -16179,7 +16179,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR72" t="n">
         <v>1.44</v>
@@ -16394,10 +16394,10 @@
         <v>0.17</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR73" t="n">
         <v>1.66</v>
@@ -16830,7 +16830,7 @@
         <v>1.71</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.9</v>
@@ -18359,7 +18359,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR82" t="n">
         <v>1.44</v>
@@ -18792,7 +18792,7 @@
         <v>1.38</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.09</v>
@@ -19231,7 +19231,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR86" t="n">
         <v>2.07</v>
@@ -19882,7 +19882,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.42</v>
@@ -20321,7 +20321,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR91" t="n">
         <v>2.11</v>
@@ -20536,7 +20536,7 @@
         <v>1.56</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.42</v>
@@ -20754,7 +20754,7 @@
         <v>0.22</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.42</v>
@@ -21411,7 +21411,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR96" t="n">
         <v>1.89</v>
@@ -22716,7 +22716,7 @@
         <v>2.3</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ102" t="n">
         <v>2.09</v>
@@ -22937,7 +22937,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR103" t="n">
         <v>1.79</v>
@@ -23885,6 +23885,442 @@
       </c>
       <c r="BP107" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>8218242</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>46074.45833333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>23</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Koper</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="n">
+        <v>6</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['52', '77', '90+2']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['45+1', '58', '64']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X108" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>8218282</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>46074.5625</v>
+      </c>
+      <c r="F109" t="n">
+        <v>23</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>NK Primorje</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['13', '90+2']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.09</v>
@@ -1791,7 +1791,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR14" t="n">
         <v>2.36</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.91</v>
@@ -5712,10 +5712,10 @@
         <v>1.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR24" t="n">
         <v>1.26</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.09</v>
@@ -7677,7 +7677,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR33" t="n">
         <v>1.49</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.42</v>
@@ -9857,7 +9857,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR43" t="n">
         <v>1.33</v>
@@ -12037,7 +12037,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR53" t="n">
         <v>1.54</v>
@@ -12252,7 +12252,7 @@
         <v>0.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.44</v>
@@ -13999,7 +13999,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR62" t="n">
         <v>1.33</v>
@@ -14432,7 +14432,7 @@
         <v>0.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.18</v>
@@ -17051,7 +17051,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR76" t="n">
         <v>2</v>
@@ -17702,7 +17702,7 @@
         <v>1.57</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.5</v>
@@ -19013,7 +19013,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR85" t="n">
         <v>1.24</v>
@@ -19664,7 +19664,7 @@
         <v>1.38</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.42</v>
@@ -20975,7 +20975,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR94" t="n">
         <v>1.82</v>
@@ -21190,7 +21190,7 @@
         <v>2.44</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.09</v>
@@ -22283,7 +22283,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR100" t="n">
         <v>1.56</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.91</v>
@@ -24042,19 +24042,19 @@
         <v>5</v>
       </c>
       <c r="AV108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW108" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX108" t="n">
         <v>8</v>
       </c>
       <c r="AY108" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ108" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA108" t="n">
         <v>7</v>
@@ -24263,16 +24263,16 @@
         <v>3</v>
       </c>
       <c r="AW109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA109" t="n">
         <v>0</v>
@@ -24321,6 +24321,224 @@
       </c>
       <c r="BP109" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8218241</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>46075.45833333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>23</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['16', '90+4']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X110" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -24475,19 +24475,19 @@
         <v>3.56</v>
       </c>
       <c r="AU110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW110" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX110" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ110" t="n">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Slovenia PrvaLiga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.44</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.09</v>
@@ -2227,7 +2227,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.25</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.91</v>
@@ -4407,7 +4407,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR18" t="n">
         <v>1.74</v>
@@ -4625,7 +4625,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.9</v>
@@ -5712,7 +5712,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.25</v>
@@ -6802,10 +6802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR29" t="n">
         <v>1.57</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR30" t="n">
         <v>1.59</v>
@@ -8549,7 +8549,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR37" t="n">
         <v>1.43</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.42</v>
@@ -8982,7 +8982,7 @@
         <v>2.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.42</v>
@@ -10293,7 +10293,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR45" t="n">
         <v>1.49</v>
@@ -10508,7 +10508,7 @@
         <v>2.6</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
         <v>2.09</v>
@@ -10729,7 +10729,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR47" t="n">
         <v>1.28</v>
@@ -11601,7 +11601,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR51" t="n">
         <v>1.48</v>
@@ -12252,7 +12252,7 @@
         <v>0.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.44</v>
@@ -12470,7 +12470,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.91</v>
@@ -13127,7 +13127,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR58" t="n">
         <v>1.16</v>
@@ -13345,7 +13345,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR59" t="n">
         <v>2.04</v>
@@ -14432,7 +14432,7 @@
         <v>0.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.18</v>
@@ -15525,7 +15525,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR69" t="n">
         <v>1.61</v>
@@ -15740,10 +15740,10 @@
         <v>0.83</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR70" t="n">
         <v>1.51</v>
@@ -17702,10 +17702,10 @@
         <v>1.57</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR79" t="n">
         <v>1.82</v>
@@ -17920,7 +17920,7 @@
         <v>0.29</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.42</v>
@@ -18141,7 +18141,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR81" t="n">
         <v>1.94</v>
@@ -18795,7 +18795,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR84" t="n">
         <v>1.61</v>
@@ -19664,7 +19664,7 @@
         <v>1.38</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.42</v>
@@ -20103,7 +20103,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR90" t="n">
         <v>1.88</v>
@@ -21190,7 +21190,7 @@
         <v>2.44</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.09</v>
@@ -21847,7 +21847,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR98" t="n">
         <v>2.11</v>
@@ -22065,7 +22065,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR99" t="n">
         <v>1.45</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.25</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.91</v>
@@ -23370,7 +23370,7 @@
         <v>1.78</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.9</v>
@@ -23591,7 +23591,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR106" t="n">
         <v>1.81</v>
@@ -24460,7 +24460,7 @@
         <v>1.36</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.25</v>
@@ -24538,6 +24538,442 @@
         <v>2.9</v>
       </c>
       <c r="BP110" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8218202</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>46081.45833333334</v>
+      </c>
+      <c r="F111" t="n">
+        <v>24</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>NK Primorje</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['59', '79']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X111" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>8218159</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Slovenia PrvaLiga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>46081.5625</v>
+      </c>
+      <c r="F112" t="n">
+        <v>24</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['31', '65']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['40', '82']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S112" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X112" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP112" t="n">
         <v>1.32</v>
       </c>
     </row>
